--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -554,7 +554,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2007 (tasa de respuesta: 99,98%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1879,7 +1879,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2012 (tasa de respuesta: 99,71%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3204,7 +3204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2016 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4529,7 +4529,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
+          <t>Población según si ha consumido medicamentos para la alergia en las dos últimas semanas en 2023 (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16A08-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>11972</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6033</v>
+        <v>6627</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20088</v>
+        <v>20293</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01727522021831783</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008706396788150458</v>
+        <v>0.009563570066223399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02898788660980442</v>
+        <v>0.0292833721186578</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -765,19 +765,19 @@
         <v>14896</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8545</v>
+        <v>8912</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24274</v>
+        <v>23773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0216405498257184</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01241417813825601</v>
+        <v>0.01294711188231197</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03526424981538816</v>
+        <v>0.03453613499257443</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>27</v>
@@ -786,19 +786,19 @@
         <v>26868</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17492</v>
+        <v>17813</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38118</v>
+        <v>37804</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01945054872711426</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01266276454007809</v>
+        <v>0.01289553094686767</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0275951529060223</v>
+        <v>0.02736731337167777</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>681022</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>672906</v>
+        <v>672701</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>686961</v>
+        <v>686367</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9827247797816822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9710121133901957</v>
+        <v>0.9707166278813422</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9912936032118497</v>
+        <v>0.9904364299337767</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>681</v>
@@ -836,19 +836,19 @@
         <v>673455</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>664077</v>
+        <v>664578</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>679806</v>
+        <v>679439</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9783594501742816</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9647357501846118</v>
+        <v>0.9654638650074254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9875858218617439</v>
+        <v>0.987052888117688</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1351</v>
@@ -857,19 +857,19 @@
         <v>1354477</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1343227</v>
+        <v>1343541</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1363853</v>
+        <v>1363532</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9805494512728857</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9724048470939777</v>
+        <v>0.9726326866283224</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9873372354599219</v>
+        <v>0.9871044690531325</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>23350</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13909</v>
+        <v>14516</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35778</v>
+        <v>35696</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02427716091954506</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01446140897893579</v>
+        <v>0.01509207519518189</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03719922142188445</v>
+        <v>0.03711400593432777</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -982,19 +982,19 @@
         <v>35963</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25529</v>
+        <v>25866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>49833</v>
+        <v>50410</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0371365045165078</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02636175150058117</v>
+        <v>0.02671074089679646</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05145964822501152</v>
+        <v>0.05205485090975217</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>53</v>
@@ -1003,19 +1003,19 @@
         <v>59313</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>45386</v>
+        <v>44721</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>77565</v>
+        <v>76075</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03072879485587595</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02351381856220892</v>
+        <v>0.02316909675953569</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04018503607873516</v>
+        <v>0.03941292474590491</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>938450</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>926022</v>
+        <v>926104</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>947891</v>
+        <v>947284</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.975722839080455</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9628007785781155</v>
+        <v>0.9628859940656723</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9855385910210642</v>
+        <v>0.9849079248048183</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>875</v>
@@ -1053,19 +1053,19 @@
         <v>932430</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>918560</v>
+        <v>917983</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>942864</v>
+        <v>942527</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9628634954834921</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9485403517749882</v>
+        <v>0.9479451490902477</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9736382484994184</v>
+        <v>0.9732892591032035</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1751</v>
@@ -1074,19 +1074,19 @@
         <v>1870880</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1852628</v>
+        <v>1854118</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1884807</v>
+        <v>1885472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.969271205144124</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9598149639212641</v>
+        <v>0.9605870752540948</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9764861814377909</v>
+        <v>0.9768309032404643</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>14755</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7651</v>
+        <v>8837</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24472</v>
+        <v>25731</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02174585221890971</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01127655594272268</v>
+        <v>0.01302366788108299</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03606702979545316</v>
+        <v>0.03792236298148264</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -1199,19 +1199,19 @@
         <v>29541</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20130</v>
+        <v>20349</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>41484</v>
+        <v>41642</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04319921681042028</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02943726260139941</v>
+        <v>0.02975688092322755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06066367076001289</v>
+        <v>0.06089397248755762</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>44</v>
@@ -1220,19 +1220,19 @@
         <v>44296</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31992</v>
+        <v>33105</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58599</v>
+        <v>60649</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03251451783172874</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02348328801285097</v>
+        <v>0.02429978747073485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04301329516173483</v>
+        <v>0.04451792192703678</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>663754</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>654037</v>
+        <v>652778</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>670858</v>
+        <v>669672</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9782541477810903</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9639329702045468</v>
+        <v>0.9620776370185173</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9887234440572773</v>
+        <v>0.986976332118917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>666</v>
@@ -1270,19 +1270,19 @@
         <v>654300</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>642357</v>
+        <v>642199</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>663711</v>
+        <v>663492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9568007831895797</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9393363292399871</v>
+        <v>0.9391060275124424</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9705627373986007</v>
+        <v>0.9702431190767724</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1293</v>
@@ -1291,19 +1291,19 @@
         <v>1318054</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1303751</v>
+        <v>1301701</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1330358</v>
+        <v>1329245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9674854821682712</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9569867048382651</v>
+        <v>0.9554820780729631</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.976516711987149</v>
+        <v>0.9757002125292652</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>28137</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>18979</v>
+        <v>18718</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>39383</v>
+        <v>41030</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02986199928544733</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02014326168408133</v>
+        <v>0.01986610050516995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04179785767651691</v>
+        <v>0.0435457049176243</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>50</v>
@@ -1416,19 +1416,19 @@
         <v>51876</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>39256</v>
+        <v>39290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>68304</v>
+        <v>67476</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04994752898338638</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03779679799742771</v>
+        <v>0.03782886791216367</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06576455032213568</v>
+        <v>0.0649670757476906</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>78</v>
@@ -1437,19 +1437,19 @@
         <v>80013</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>62812</v>
+        <v>65548</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>97785</v>
+        <v>102573</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0403934578445256</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03170976880692362</v>
+        <v>0.03309129176590792</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04936536506845708</v>
+        <v>0.05178265512374541</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>914085</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>902839</v>
+        <v>901192</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>923243</v>
+        <v>923504</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9701380007145527</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.958202142323483</v>
+        <v>0.9564542950823756</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9798567383159186</v>
+        <v>0.9801338994948299</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>947</v>
@@ -1487,19 +1487,19 @@
         <v>986736</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>970308</v>
+        <v>971136</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>999356</v>
+        <v>999322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9500524710166136</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9342354496778643</v>
+        <v>0.9350329242523093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9622032020025724</v>
+        <v>0.9621711320878364</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1913</v>
@@ -1508,19 +1508,19 @@
         <v>1900821</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1883049</v>
+        <v>1878261</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1918022</v>
+        <v>1915286</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9596065421554744</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9506346349315429</v>
+        <v>0.948217344876255</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9682902311930763</v>
+        <v>0.9669087082340921</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>78213</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>63052</v>
+        <v>62417</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101035</v>
+        <v>100813</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02387793940796142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01924956398251143</v>
+        <v>0.01905542058184682</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0308453166015012</v>
+        <v>0.03077756683363266</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>128</v>
@@ -1633,19 +1633,19 @@
         <v>132277</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>110973</v>
+        <v>111054</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>157215</v>
+        <v>155417</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0391443658550934</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03283994364509102</v>
+        <v>0.03286401063679439</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04652445278689873</v>
+        <v>0.04599224909638291</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -1654,19 +1654,19 @@
         <v>210489</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>183199</v>
+        <v>182251</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>241031</v>
+        <v>242857</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03163006843644426</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02752913238249925</v>
+        <v>0.02738666494807595</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03621949897416051</v>
+        <v>0.03649390115597236</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3197312</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3174490</v>
+        <v>3174712</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3212473</v>
+        <v>3213108</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9761220605920385</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9691546833984983</v>
+        <v>0.9692224331663674</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9807504360174885</v>
+        <v>0.9809445794181533</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3169</v>
@@ -1704,19 +1704,19 @@
         <v>3246920</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3221982</v>
+        <v>3223780</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3268224</v>
+        <v>3268143</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9608556341449066</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9534755472131013</v>
+        <v>0.9540077509036172</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.967160056354909</v>
+        <v>0.9671359893632057</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6308</v>
@@ -1725,19 +1725,19 @@
         <v>6444233</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6413691</v>
+        <v>6411865</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6471523</v>
+        <v>6472471</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9683699315635558</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9637805010258395</v>
+        <v>0.9635060988440276</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9724708676175008</v>
+        <v>0.972613335051924</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>14925</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8022</v>
+        <v>8640</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24630</v>
+        <v>23506</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02129816117572423</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01144730497771907</v>
+        <v>0.01232987286836707</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03514775547162419</v>
+        <v>0.03354323582252049</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>31</v>
@@ -2090,19 +2090,19 @@
         <v>31170</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22127</v>
+        <v>21180</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>42385</v>
+        <v>43533</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04495493625273807</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03191330376193219</v>
+        <v>0.03054724751728611</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06113109261375255</v>
+        <v>0.06278662560039802</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>45</v>
@@ -2111,19 +2111,19 @@
         <v>46095</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>33417</v>
+        <v>34914</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61940</v>
+        <v>60782</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03306365554317216</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02397034906435469</v>
+        <v>0.0250438810465609</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04442969251767485</v>
+        <v>0.04359923173651277</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>685839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>676134</v>
+        <v>677258</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>692742</v>
+        <v>692124</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9787018388242757</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.964852244528376</v>
+        <v>0.9664567641774796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9885526950222809</v>
+        <v>0.987670127131633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>616</v>
@@ -2161,19 +2161,19 @@
         <v>662181</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>650966</v>
+        <v>649818</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>671224</v>
+        <v>672171</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9550450637472619</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9388689073862474</v>
+        <v>0.937213374399602</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9680866962380678</v>
+        <v>0.9694527524827139</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1273</v>
@@ -2182,19 +2182,19 @@
         <v>1348020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1332175</v>
+        <v>1333333</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1360698</v>
+        <v>1359201</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9669363444568279</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9555703074823253</v>
+        <v>0.9564007682634873</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9760296509356454</v>
+        <v>0.9749561189534393</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>36587</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25409</v>
+        <v>25540</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51011</v>
+        <v>50998</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03594160702664925</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02496134199764332</v>
+        <v>0.02509009466123763</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05011176675454952</v>
+        <v>0.050099365906058</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -2307,19 +2307,19 @@
         <v>59206</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44617</v>
+        <v>46485</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74610</v>
+        <v>77014</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05766723883444905</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04345706444637838</v>
+        <v>0.04527638101778318</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07267048934038015</v>
+        <v>0.07501249554282587</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -2328,19 +2328,19 @@
         <v>95793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>77051</v>
+        <v>79082</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>117194</v>
+        <v>118162</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04685086231074277</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03768470258251676</v>
+        <v>0.03867786460755505</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05731797542153687</v>
+        <v>0.05779141971624868</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>981360</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>966936</v>
+        <v>966949</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>992538</v>
+        <v>992407</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9640583929733507</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9498882332454504</v>
+        <v>0.9499006340939421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9750386580023567</v>
+        <v>0.9749099053387629</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>880</v>
@@ -2378,19 +2378,19 @@
         <v>967482</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>952078</v>
+        <v>949674</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>982071</v>
+        <v>980203</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.942332761165551</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9273295106596198</v>
+        <v>0.924987504457174</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9565429355536215</v>
+        <v>0.9547236189822168</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1783</v>
@@ -2399,19 +2399,19 @@
         <v>1948842</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1927441</v>
+        <v>1926473</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1967584</v>
+        <v>1965553</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9531491376892572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9426820245784632</v>
+        <v>0.9422085802837513</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9623152974174831</v>
+        <v>0.9613221353924449</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>30816</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>19660</v>
+        <v>20966</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44556</v>
+        <v>45242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04073289424274902</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02598718664257936</v>
+        <v>0.02771336054669488</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0588942337162995</v>
+        <v>0.05980112454618054</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -2524,19 +2524,19 @@
         <v>44092</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30844</v>
+        <v>31449</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>58260</v>
+        <v>58775</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05679845456537426</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03973244909872965</v>
+        <v>0.04051222756036149</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07505028991374428</v>
+        <v>0.07571332071663811</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -2545,19 +2545,19 @@
         <v>74908</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>57218</v>
+        <v>57781</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>94140</v>
+        <v>93853</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04886915148267864</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03732868286100874</v>
+        <v>0.0376957604437044</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06141616956031096</v>
+        <v>0.06122890169379195</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>725722</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>711982</v>
+        <v>711296</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>736878</v>
+        <v>735572</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9592671057572509</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9411057662837007</v>
+        <v>0.9401988754538193</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9740128133574206</v>
+        <v>0.9722866394533051</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>665</v>
@@ -2595,19 +2595,19 @@
         <v>732191</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>718023</v>
+        <v>717508</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>745439</v>
+        <v>744834</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9432015454346258</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9249497100862557</v>
+        <v>0.9242866792833618</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9602675509012703</v>
+        <v>0.9594877724396385</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1327</v>
@@ -2616,19 +2616,19 @@
         <v>1457913</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1438681</v>
+        <v>1438968</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1475603</v>
+        <v>1475040</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9511308485173213</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9385838304396891</v>
+        <v>0.938771098306208</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9626713171389913</v>
+        <v>0.9623042395562957</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>34282</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23054</v>
+        <v>23936</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>46518</v>
+        <v>48514</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03631793837045288</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02442265876191907</v>
+        <v>0.02535769422171544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0492806737902495</v>
+        <v>0.05139537382368321</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>58</v>
@@ -2741,19 +2741,19 @@
         <v>60738</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>46403</v>
+        <v>47513</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>77237</v>
+        <v>79217</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05791424278721121</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04424533042841298</v>
+        <v>0.04530372657373593</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07364566665525696</v>
+        <v>0.07553369931221629</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>90</v>
@@ -2762,19 +2762,19 @@
         <v>95020</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>76962</v>
+        <v>76917</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>118366</v>
+        <v>115906</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04768411499310581</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03862213330179431</v>
+        <v>0.03859940667452938</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05939980079007933</v>
+        <v>0.05816533566549523</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>909657</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>897421</v>
+        <v>895425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>920885</v>
+        <v>920003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9636820616295472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9507193262097507</v>
+        <v>0.9486046261763168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.975577341238081</v>
+        <v>0.9746423057782846</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>942</v>
@@ -2812,19 +2812,19 @@
         <v>988025</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>971526</v>
+        <v>969546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1002360</v>
+        <v>1001250</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9420857572127888</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.926354333344743</v>
+        <v>0.9244663006877836</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9557546695715871</v>
+        <v>0.9546962734262637</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1817</v>
@@ -2833,19 +2833,19 @@
         <v>1897683</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1874337</v>
+        <v>1876797</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1915741</v>
+        <v>1915786</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9523158850068942</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9406001992099208</v>
+        <v>0.9418346643345048</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9613778666982057</v>
+        <v>0.9614005933254707</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>116610</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96209</v>
+        <v>95114</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>140937</v>
+        <v>141384</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03410445433262534</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02813799329757886</v>
+        <v>0.02781777421199067</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04121948373553914</v>
+        <v>0.0413500679282507</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>183</v>
@@ -2958,19 +2958,19 @@
         <v>195206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>168052</v>
+        <v>168360</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>223315</v>
+        <v>224635</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05506378664379125</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04740421220118578</v>
+        <v>0.04749112643941718</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06299285560891164</v>
+        <v>0.06336522428992422</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>288</v>
@@ -2979,19 +2979,19 @@
         <v>311815</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>279549</v>
+        <v>279676</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>354919</v>
+        <v>352319</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04477356819643205</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04014037183572045</v>
+        <v>0.04015868134700201</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.050962837181286</v>
+        <v>0.05058949736521117</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3302578</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3278251</v>
+        <v>3277804</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3322979</v>
+        <v>3324074</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9658955456673747</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9587805162644606</v>
+        <v>0.958649932071749</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9718620067024211</v>
+        <v>0.9721822257880093</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3103</v>
@@ -3029,19 +3029,19 @@
         <v>3349880</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3321771</v>
+        <v>3320451</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3377034</v>
+        <v>3376726</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9449362133562087</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9370071443910881</v>
+        <v>0.9366347757100758</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9525957877988139</v>
+        <v>0.9525088735605829</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6200</v>
@@ -3050,19 +3050,19 @@
         <v>6652459</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6609355</v>
+        <v>6611955</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6684725</v>
+        <v>6684598</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9552264318035679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9490371628187135</v>
+        <v>0.9494105026347889</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9598596281642795</v>
+        <v>0.959841318652998</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>18316</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11226</v>
+        <v>10742</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27614</v>
+        <v>28375</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02714239723256718</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01663634608990654</v>
+        <v>0.01591900749680792</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04092120266625624</v>
+        <v>0.04204979112130877</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>23</v>
@@ -3415,19 +3415,19 @@
         <v>24185</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>15608</v>
+        <v>15437</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35501</v>
+        <v>35558</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03594486171035386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02319790854616999</v>
+        <v>0.02294246633186766</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05276293115805772</v>
+        <v>0.05284790118243785</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -3436,19 +3436,19 @@
         <v>42501</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29923</v>
+        <v>31019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56304</v>
+        <v>57869</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03153722506715935</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02220409119079327</v>
+        <v>0.02301728746519757</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04177958083827659</v>
+        <v>0.04294097274484092</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>656484</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>647186</v>
+        <v>646425</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>663574</v>
+        <v>664058</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9728576027674328</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9590787973337438</v>
+        <v>0.957950208878691</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9833636539100935</v>
+        <v>0.984080992503192</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>643</v>
@@ -3486,19 +3486,19 @@
         <v>648654</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>637338</v>
+        <v>637281</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>657231</v>
+        <v>657402</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9640551382896462</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9472370688419411</v>
+        <v>0.947152098817563</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9768020914538299</v>
+        <v>0.9770575336681324</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1277</v>
@@ -3507,19 +3507,19 @@
         <v>1305138</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1291335</v>
+        <v>1289770</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1317716</v>
+        <v>1316620</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9684627749328406</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9582204191617235</v>
+        <v>0.9570590272551589</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9777959088092069</v>
+        <v>0.9769827125348023</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>28776</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19160</v>
+        <v>19741</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>41402</v>
+        <v>41359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02814489165372545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01873930595281246</v>
+        <v>0.01930805226759045</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04049380034963974</v>
+        <v>0.04045177996175726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -3632,19 +3632,19 @@
         <v>61176</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>47910</v>
+        <v>46360</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>79319</v>
+        <v>76763</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05865897149710768</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04593861935207213</v>
+        <v>0.04445235593296436</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07605556673111992</v>
+        <v>0.07360412793481752</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>83</v>
@@ -3653,19 +3653,19 @@
         <v>89952</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>73629</v>
+        <v>71361</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111348</v>
+        <v>112529</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04355323559445586</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03564992733382299</v>
+        <v>0.03455142548079371</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.05391264431367549</v>
+        <v>0.05448453676019613</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>993655</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>981029</v>
+        <v>981072</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1003271</v>
+        <v>1002690</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9718551083462745</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9595061996503602</v>
+        <v>0.9595482200382425</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9812606940471875</v>
+        <v>0.9806919477324095</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>920</v>
@@ -3703,19 +3703,19 @@
         <v>981737</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>963594</v>
+        <v>966150</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>995003</v>
+        <v>996553</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9413410285028924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9239444332688799</v>
+        <v>0.9263958720651825</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9540613806479278</v>
+        <v>0.9555476440670355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1845</v>
@@ -3724,19 +3724,19 @@
         <v>1975392</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1953996</v>
+        <v>1952815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1991715</v>
+        <v>1993983</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9564467644055441</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9460873556863244</v>
+        <v>0.9455154632398042</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.964350072666177</v>
+        <v>0.9654485745192065</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>23111</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14750</v>
+        <v>15281</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34350</v>
+        <v>34568</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03042671318808027</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01941887988811075</v>
+        <v>0.02011822623216979</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04522357482545328</v>
+        <v>0.04551069626919373</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3849,19 +3849,19 @@
         <v>53974</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>40727</v>
+        <v>40673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68896</v>
+        <v>69901</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06875618278679051</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05188123745213802</v>
+        <v>0.05181160755014761</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08776383468735743</v>
+        <v>0.08904496617000748</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>73</v>
@@ -3870,19 +3870,19 @@
         <v>77085</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>61184</v>
+        <v>60639</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96798</v>
+        <v>95764</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04990733531714617</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03961236024866818</v>
+        <v>0.03925943461684373</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06266983171850152</v>
+        <v>0.0620009004112216</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>736441</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>725202</v>
+        <v>724984</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744802</v>
+        <v>744271</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9695732868119197</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9547764251745466</v>
+        <v>0.9544893037308062</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9805811201118892</v>
+        <v>0.9798817737678303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>685</v>
@@ -3920,19 +3920,19 @@
         <v>731037</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>716115</v>
+        <v>715110</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>744284</v>
+        <v>744338</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9312438172132095</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9122361653126426</v>
+        <v>0.9109550338299925</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9481187625478621</v>
+        <v>0.9481883924498524</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1359</v>
@@ -3941,19 +3941,19 @@
         <v>1467478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1447765</v>
+        <v>1448799</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1483379</v>
+        <v>1483924</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9500926646828538</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9373301682814984</v>
+        <v>0.9379990995887787</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9603876397513315</v>
+        <v>0.9607405653831567</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>34033</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>23922</v>
+        <v>24139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47319</v>
+        <v>48668</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03629963896460695</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0255147933305364</v>
+        <v>0.02574680508820528</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05046956395139396</v>
+        <v>0.05190927670055612</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>46</v>
@@ -4066,19 +4066,19 @@
         <v>51126</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38256</v>
+        <v>37412</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>67798</v>
+        <v>66699</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04898193344299641</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03665154454934581</v>
+        <v>0.03584283261458811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06495416112979935</v>
+        <v>0.06390172096013101</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>80</v>
@@ -4087,19 +4087,19 @@
         <v>85160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>68602</v>
+        <v>67083</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>104523</v>
+        <v>104650</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04298070967625719</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03462378037153378</v>
+        <v>0.03385753522169462</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05275334753208313</v>
+        <v>0.05281749361990107</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>903534</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>890248</v>
+        <v>888899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>913645</v>
+        <v>913428</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.963700361035393</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9495304360486061</v>
+        <v>0.948090723299444</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9744852066694636</v>
+        <v>0.9742531949117949</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>913</v>
@@ -4137,19 +4137,19 @@
         <v>992653</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>975981</v>
+        <v>977080</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1005523</v>
+        <v>1006367</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9510180665570036</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9350458388702007</v>
+        <v>0.9360982790398688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9633484554506542</v>
+        <v>0.9641571673854118</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1811</v>
@@ -4158,19 +4158,19 @@
         <v>1896186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1876823</v>
+        <v>1876696</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1912744</v>
+        <v>1914263</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9570192903237428</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9472466524679169</v>
+        <v>0.9471825063800984</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9653762196284662</v>
+        <v>0.9661424647783052</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>104236</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>84218</v>
+        <v>85089</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125811</v>
+        <v>126754</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03070865222488643</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02481124538428898</v>
+        <v>0.02506791274463798</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03706484341042916</v>
+        <v>0.03734250786109318</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>177</v>
@@ -4283,19 +4283,19 @@
         <v>190462</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>162760</v>
+        <v>162354</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>220566</v>
+        <v>218532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05373387652741457</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04591847582898394</v>
+        <v>0.04580408396035201</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06222682901993164</v>
+        <v>0.0616530115384867</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -4304,19 +4304,19 @@
         <v>294698</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>263764</v>
+        <v>263193</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>334724</v>
+        <v>329925</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.04247045375638014</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03801244302072264</v>
+        <v>0.03793017424983461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04823877682643521</v>
+        <v>0.04754727723954714</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3290114</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3268539</v>
+        <v>3267596</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3310132</v>
+        <v>3309261</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9692913477751136</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9629351565895712</v>
+        <v>0.9626574921389064</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9751887546157111</v>
+        <v>0.9749320872553621</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3161</v>
@@ -4354,19 +4354,19 @@
         <v>3354080</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3323976</v>
+        <v>3326010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3381782</v>
+        <v>3382188</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9462661234725854</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9377731709800685</v>
+        <v>0.9383469884615133</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9540815241710161</v>
+        <v>0.954195916039648</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6292</v>
@@ -4375,19 +4375,19 @@
         <v>6644194</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6604168</v>
+        <v>6608967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6675128</v>
+        <v>6675699</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9575295462436199</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9517612231735644</v>
+        <v>0.952452722760453</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9619875569792768</v>
+        <v>0.9620698257501658</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>22143</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>13575</v>
+        <v>13760</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35846</v>
+        <v>35460</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03208129016588647</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01966764755927353</v>
+        <v>0.0199363803954016</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05193483606323421</v>
+        <v>0.0513749832146294</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>41</v>
@@ -4740,19 +4740,19 @@
         <v>31326</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21630</v>
+        <v>22387</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44035</v>
+        <v>43575</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.04274914824168074</v>
+        <v>0.04274914824168073</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02951813955107509</v>
+        <v>0.03055045601126368</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06009242650187013</v>
+        <v>0.05946529182859253</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>60</v>
@@ -4761,19 +4761,19 @@
         <v>53469</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40592</v>
+        <v>40949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>70969</v>
+        <v>70612</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.03757477792148732</v>
+        <v>0.03757477792148731</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02852559602983535</v>
+        <v>0.0287763536824503</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04987274412869329</v>
+        <v>0.04962183684634286</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>668072</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>654369</v>
+        <v>654755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>676640</v>
+        <v>676455</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9679187098341134</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9480651639367658</v>
+        <v>0.9486250167853703</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9803323524407265</v>
+        <v>0.9800636196045984</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1197</v>
@@ -4811,19 +4811,19 @@
         <v>701456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>688747</v>
+        <v>689207</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>711152</v>
+        <v>710395</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9572508517583194</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9399075734981298</v>
+        <v>0.9405347081714074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.970481860448925</v>
+        <v>0.9694495439887363</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1907</v>
@@ -4832,19 +4832,19 @@
         <v>1369528</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1352028</v>
+        <v>1352385</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1382405</v>
+        <v>1382048</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9624252220785129</v>
+        <v>0.9624252220785126</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9501272558713068</v>
+        <v>0.9503781631536569</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9714744039701647</v>
+        <v>0.9712236463175496</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>32897</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20967</v>
+        <v>21830</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48731</v>
+        <v>48611</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.03136241930790913</v>
+        <v>0.03136241930790912</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01998938581498015</v>
+        <v>0.02081217298373273</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.04645858397205669</v>
+        <v>0.04634442532257332</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -4957,19 +4957,19 @@
         <v>40438</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>30977</v>
+        <v>30147</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54512</v>
+        <v>53357</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03776271654788162</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02892736617710338</v>
+        <v>0.02815284267633266</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05090575280475453</v>
+        <v>0.0498277808604368</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>82</v>
@@ -4978,19 +4978,19 @@
         <v>73334</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57250</v>
+        <v>58625</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>94697</v>
+        <v>94334</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03459566141925158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02700799286798432</v>
+        <v>0.02765626415287646</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04467339518917562</v>
+        <v>0.0445025449325754</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>1016020</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1000186</v>
+        <v>1000306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1027950</v>
+        <v>1027087</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9686375806920909</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9535414160279432</v>
+        <v>0.9536555746774267</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9800106141850196</v>
+        <v>0.9791878270162674</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1463</v>
@@ -5028,19 +5028,19 @@
         <v>1030400</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1016326</v>
+        <v>1017481</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1039861</v>
+        <v>1040691</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9622372834521185</v>
+        <v>0.9622372834521183</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9490942471952457</v>
+        <v>0.9501722191395633</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9710726338228971</v>
+        <v>0.9718471573236676</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2398</v>
@@ -5049,19 +5049,19 @@
         <v>2046421</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2025058</v>
+        <v>2025421</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2062505</v>
+        <v>2061130</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9654043385807485</v>
+        <v>0.9654043385807484</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9553266048108242</v>
+        <v>0.955497455067425</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9729920071320155</v>
+        <v>0.9723437358471235</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>34179</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>22743</v>
+        <v>22940</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48912</v>
+        <v>48526</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04261215301308731</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02835477333779654</v>
+        <v>0.0285999765645837</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06098063328485186</v>
+        <v>0.06049990720337934</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -5174,19 +5174,19 @@
         <v>48927</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>36691</v>
+        <v>37566</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62417</v>
+        <v>61559</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06028033161707412</v>
+        <v>0.0602803316170741</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04520517487368719</v>
+        <v>0.04628257380279583</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07689996772110962</v>
+        <v>0.07584292400401337</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>94</v>
@@ -5195,19 +5195,19 @@
         <v>83106</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66303</v>
+        <v>66443</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>102566</v>
+        <v>102878</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05149866970932773</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04108644762103568</v>
+        <v>0.04117334570199889</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06355762115157589</v>
+        <v>0.06375093395545532</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>767907</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>753174</v>
+        <v>753560</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>779343</v>
+        <v>779146</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9573878469869126</v>
+        <v>0.9573878469869128</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9390193667151484</v>
+        <v>0.9395000927966208</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9716452266622034</v>
+        <v>0.9714000234354164</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>981</v>
@@ -5245,19 +5245,19 @@
         <v>762736</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>749246</v>
+        <v>750104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>774972</v>
+        <v>774097</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.939719668382926</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9231000322788904</v>
+        <v>0.9241570759959868</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.954794825126313</v>
+        <v>0.9537174261972041</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1627</v>
@@ -5266,19 +5266,19 @@
         <v>1530642</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1511182</v>
+        <v>1510870</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1547445</v>
+        <v>1547305</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9485013302906721</v>
+        <v>0.9485013302906722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.936442378848424</v>
+        <v>0.9362490660445447</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9589135523789644</v>
+        <v>0.9588266542980012</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>30327</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21042</v>
+        <v>20221</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44595</v>
+        <v>44531</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03063137701706971</v>
+        <v>0.0306313770170697</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02125354341674463</v>
+        <v>0.02042411535930232</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04504227698305888</v>
+        <v>0.04497755517225589</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>86</v>
@@ -5391,19 +5391,19 @@
         <v>64231</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51551</v>
+        <v>51418</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>80918</v>
+        <v>80455</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.05750120261065044</v>
+        <v>0.05750120261065045</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04615008609286964</v>
+        <v>0.0460310537033068</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.07244018320411037</v>
+        <v>0.07202558586806276</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>113</v>
@@ -5412,19 +5412,19 @@
         <v>94558</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>77470</v>
+        <v>77462</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>111908</v>
+        <v>113787</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.04487584601664463</v>
+        <v>0.04487584601664464</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03676633848191006</v>
+        <v>0.03676259864766627</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05311017986928827</v>
+        <v>0.05400171815797409</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>959735</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>945467</v>
+        <v>945531</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>969020</v>
+        <v>969841</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9693686229829304</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9549577230169418</v>
+        <v>0.9550224448277442</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9787464565832554</v>
+        <v>0.9795758846406977</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1473</v>
@@ -5462,19 +5462,19 @@
         <v>1052800</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1036113</v>
+        <v>1036576</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1065480</v>
+        <v>1065613</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9424987973893494</v>
+        <v>0.9424987973893496</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9275598167958895</v>
+        <v>0.9279744141319374</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9538499139071304</v>
+        <v>0.9539689462966932</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2452</v>
@@ -5483,19 +5483,19 @@
         <v>2012535</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1995185</v>
+        <v>1993306</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2029623</v>
+        <v>2029631</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9551241539833553</v>
+        <v>0.9551241539833556</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9468898201307119</v>
+        <v>0.9459982818420259</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9632336615180899</v>
+        <v>0.9632374013523337</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>119545</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>98944</v>
+        <v>95451</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>147345</v>
+        <v>144058</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03385320093119155</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02801930357341013</v>
+        <v>0.02703027695473402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04172560681908181</v>
+        <v>0.04079472344240208</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>245</v>
@@ -5608,19 +5608,19 @@
         <v>184921</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>160789</v>
+        <v>163042</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>212866</v>
+        <v>213967</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04954607024680572</v>
+        <v>0.04954607024680571</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04308013915328687</v>
+        <v>0.04368376964118601</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05703317707523096</v>
+        <v>0.05732824562701815</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>349</v>
@@ -5629,19 +5629,19 @@
         <v>304467</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>274778</v>
+        <v>271502</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>343313</v>
+        <v>336351</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.04191680066327556</v>
+        <v>0.04191680066327554</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03782953707286549</v>
+        <v>0.03737852078602323</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04726487524140766</v>
+        <v>0.04630644428156344</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3411735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3383935</v>
+        <v>3387222</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3432336</v>
+        <v>3435829</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9661467990688085</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9582743931809182</v>
+        <v>0.9592052765575979</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9719806964265899</v>
+        <v>0.9729697230452659</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5114</v>
@@ -5679,19 +5679,19 @@
         <v>3547392</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3519447</v>
+        <v>3518346</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3571524</v>
+        <v>3569271</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9504539297531943</v>
+        <v>0.9504539297531942</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9429668229247692</v>
+        <v>0.9426717543729818</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9569198608467132</v>
+        <v>0.9563162303588141</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8384</v>
@@ -5700,19 +5700,19 @@
         <v>6959126</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6920280</v>
+        <v>6927242</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6988815</v>
+        <v>6992091</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9580831993367245</v>
+        <v>0.9580831993367244</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9527351247585925</v>
+        <v>0.9536935557184365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9621704629271345</v>
+        <v>0.9626214792139767</v>
       </c>
     </row>
     <row r="18">
